--- a/medicine/Enfance/Rumer_Godden/Rumer_Godden.xlsx
+++ b/medicine/Enfance/Rumer_Godden/Rumer_Godden.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rumer Godden (10 décembre 1907 - 8 novembre 1998) est une femme de lettres anglaise, auteur de soixante romans se déroulant souvent en Inde et dont plusieurs ont été adaptés au cinéma. Elle a également écrit plusieurs œuvres de littérature d'enfance et de jeunesse.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Née en 1907 dans le Sussex, en Angleterre, Margaret Rumer Godden et ses trois sœurs grandissent en Inde à Narayanganj, autrefois colonie britannique des Indes, aujourd'hui au Bangladesh. Son père, directeur d'une compagnie maritime, envoie ses filles en Grande-Bretagne pour y être scolarisées jusqu'en 1925. Margaret rentre à Calcutta où elle ouvre une école de danse qu'elle dirigera pendant vingt ans avec l'une de ses sœurs.
-Parce qu'elle est enceinte[1], elle épouse le père de son enfant, Laurence Foster, en 1934. Deux filles naîtront de cette union qu'elle qualifiera de malheureuse. En 1942, avec sa famille, elle s'installe au Cachemire où elle dirige une exploitation agricole. Elle revient au Royaume-Uni en 1944. Divorcée en 1948 de son premier mari, elle épouse l'année suivante un fonctionnaire, James Haynes Dixon, et se consacre à l'écriture.
-Au début des années 1950, elle commence à s'intéresser au catholicisme et se convertit en 1968[2]. Cet intérêt pour la spiritualité et le mysticisme est visible dans plusieurs de ses romans[3] : elle y brosse le portrait de prêtres et de religieuses catholiques et réalise notamment une étude profonde de l'équilibre entre les aspects spirituel et humain de la vie religieuse.
+Parce qu'elle est enceinte, elle épouse le père de son enfant, Laurence Foster, en 1934. Deux filles naîtront de cette union qu'elle qualifiera de malheureuse. En 1942, avec sa famille, elle s'installe au Cachemire où elle dirige une exploitation agricole. Elle revient au Royaume-Uni en 1944. Divorcée en 1948 de son premier mari, elle épouse l'année suivante un fonctionnaire, James Haynes Dixon, et se consacre à l'écriture.
+Au début des années 1950, elle commence à s'intéresser au catholicisme et se convertit en 1968. Cet intérêt pour la spiritualité et le mysticisme est visible dans plusieurs de ses romans : elle y brosse le portrait de prêtres et de religieuses catholiques et réalise notamment une étude profonde de l'équilibre entre les aspects spirituel et humain de la vie religieuse.
 </t>
         </is>
       </c>
@@ -544,11 +558,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1958 : (international) « Honor List »[4], de l' IBBY, pour The Fairy Doll
-Décoration
-1993 : officier de l'ordre de l'Empire britannique</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1958 : (international) « Honor List », de l' IBBY, pour The Fairy Doll</t>
         </is>
       </c>
     </row>
@@ -573,12 +587,50 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Décoration</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1993 : officier de l'ordre de l'Empire britannique</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rumer_Godden</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rumer_Godden</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Œuvres publiées en France</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Note : ordre chronologique[5]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Note : ordre chronologique
 1941 Le Narcisse noir (Black Narcissus), éditions Albin Michel, roman, 1949 ; Actes Sud, 2006
 1942 : Le Déjeuner chez les Nikolidès (Breakfast with the Nikolides), éditions Journal de Genève, roman, 1944
 1946 : Le Fleuve (The River), éditions Albin Michel, 1949
@@ -586,7 +638,7 @@
 1947 : Une maison de poupée (The Dolls' House), éditions Fernand Nathan, coll. « Bibliothèque internationale », traduit par Sherban Sidery, illustrations de Kersti Chaplet, roman jeunesse, 1973
 1953 : L'Oiseau de feu (Kingfishers catch fire), éditions Albin Michel, roman, 1957
 1956 : Une histoire de moineaux (An Episode of Sparrows), éditions Albin Michel, 1958
-1958 : L'Été des reines-claudes (The Greengage Summer), éditions Albin Michel, roman, 1961[6]
+1958 : L'Été des reines-claudes (The Greengage Summer), éditions Albin Michel, roman, 1961
 1958 : L'Histoire de Prune et Fleur de Houx (The Story of Holly and Ivy), éditions Gallimard, coll. « Folio cadet », roman jeunesse, 1986 ; réédition en 1990 sous le titre	Prune et Fleur de Houx, illustré par Barbara Cooney, éditions Gallimard Jeunesse
 1960 : Angélique (Candy floss), illustré par  Fabienne Julien, éditions Fernand Nathan, coll. « Arc-en-poche », roman jeunesse, 1984
 1963 : La Bataille de la Villa Fiorita (The Battle of the Villa Fiorita, éditions Albin Michel, roman, 1964
@@ -602,41 +654,80 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Rumer_Godden</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Rumer_Godden</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Au cinéma
-1947 : Le Narcisse noir, d'après le roman du même nom. Film britannique avec Deborah Kerr.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Au cinéma</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1947 : Le Narcisse noir, d'après le roman du même nom. Film britannique avec Deborah Kerr.
 1948 : Vous qui avez vingt ans, d'après le roman Fugue. Film américain avec David Niven et Teresa Wright.
 1951 : Le Fleuve, d'après le roman du même nom. Film tourné en Inde par Jean Renoir.
 1958 : Innocent Sinners, d'après le roman Une histoire de moineaux. Film inédit en France.
 1961 : Un si bel été, d'après le roman L'Été des reines-claudes. Film britannique.
-1965 : La Bataille de la Villa Fiorita, d'après le roman du même nom. Film britannique de Delmer Daves.
-À la télévision
-Tottie: The Story of a Doll's House (en) (1984), série d'animation britannique pour la jeunesse inspirée du roman Une maison de poupée (The Dolls' House) publié en 1947.</t>
+1965 : La Bataille de la Villa Fiorita, d'après le roman du même nom. Film britannique de Delmer Daves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rumer_Godden</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rumer_Godden</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>À la télévision</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Tottie: The Story of a Doll's House (en) (1984), série d'animation britannique pour la jeunesse inspirée du roman Une maison de poupée (The Dolls' House) publié en 1947.</t>
         </is>
       </c>
     </row>
